--- a/recipe_template.xlsx
+++ b/recipe_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9540" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +778,10 @@
         <v>-20</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
